--- a/biology/Zoologie/Gymnotichthys_hildae/Gymnotichthys_hildae.xlsx
+++ b/biology/Zoologie/Gymnotichthys_hildae/Gymnotichthys_hildae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnotichthys hildae, unique représentant du genre Gymnotichthys, est une espèce de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre dans le bassin de l'Orénoque (Amérique du Sud)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre dans le bassin de l'Orénoque (Amérique du Sud).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnotichthys hildae mesure au maximum 71 mm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnotichthys hildae mesure au maximum 71 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gymnotichthys et l'espèce Gymnotichthys hildae ont été décrits en 1950 par l'ichtyologiste vénézuélien Agustín Fernández-Yépez (d) (1916-1977)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gymnotichthys et l'espèce Gymnotichthys hildae ont été décrits en 1950 par l'ichtyologiste vénézuélien Agustín Fernández-Yépez (d) (1916-1977).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Gymnotichthys, est la combinaison du grec ancien γυμνός, gumnós, « nu » et du suffixe ἰχθύς, ikhthús, « poisson »[1],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Gymnotichthys, est la combinaison du grec ancien γυμνός, gumnós, « nu » et du suffixe ἰχθύς, ikhthús, « poisson »,.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(es) A. Fernández-Yépez, « Algunos peces del Rio Autana », Novedades Cientificas, Contribuciones Ocasionales del Museo de Historia Natural La Salle, Caracas, zoológica no 2,‎ 1-18, p. 1950.</t>
         </is>
